--- a/3a_WBPRWP_relevance.xlsx
+++ b/3a_WBPRWP_relevance.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMWacker\ownCloud\Documents\Projects\WBgrowth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMWacker\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927971E4-1F29-477F-93E1-E860955B2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D3A97-2255-4AB1-8683-C6A944EEDC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relevance_overview" sheetId="5" r:id="rId1"/>
-    <sheet name="dominance" sheetId="1" r:id="rId2"/>
-    <sheet name="std_beta" sheetId="4" r:id="rId3"/>
-    <sheet name="growth_calculation" sheetId="2" r:id="rId4"/>
-    <sheet name="temp_variabl" sheetId="6" r:id="rId5"/>
-    <sheet name="agri_interaction" sheetId="3" r:id="rId6"/>
+    <sheet name="std_beta" sheetId="4" r:id="rId2"/>
+    <sheet name="dominance" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk135864186" localSheetId="2">std_beta!$G$7</definedName>
+    <definedName name="_Hlk135864186" localSheetId="1">std_beta!$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="583">
   <si>
     <t>General dominance statistics: Custom user analysis</t>
   </si>
@@ -926,18 +923,6 @@
     <t>dgini</t>
   </si>
   <si>
-    <t>difference</t>
-  </si>
-  <si>
-    <t>growth effect</t>
-  </si>
-  <si>
-    <t>period dummy</t>
-  </si>
-  <si>
-    <t>persistence</t>
-  </si>
-  <si>
     <t>Number of obs             =                     635</t>
   </si>
   <si>
@@ -1793,24 +1778,6 @@
     <t>(scatter stdbeta_large dominance_large if colorcode_large==4, mcol(erose) mlabcol(erose) mlab(var1))</t>
   </si>
   <si>
-    <t>sy</t>
-  </si>
-  <si>
-    <t>sx</t>
-  </si>
-  <si>
-    <t>interaction</t>
-  </si>
-  <si>
-    <t>sd_temp</t>
-  </si>
-  <si>
-    <t>ldv</t>
-  </si>
-  <si>
-    <t>long run</t>
-  </si>
-  <si>
     <t>coefficients</t>
   </si>
   <si>
@@ -1820,31 +1787,16 @@
     <t>depvar:</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>sd dev</t>
-  </si>
-  <si>
-    <t>Nepal</t>
+    <t>standardized beta 
+(see tab std_beta)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1896,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1907,11 +1859,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1920,15 +1867,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,44 +2196,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01676F7D-DB82-4BC0-B65F-767FD37EBD0D}">
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="L3" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="N3" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
@@ -2296,31 +2246,31 @@
       <c r="D4" s="2">
         <v>-4.8933898063250221E-2</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H15" si="0">ABS(C4)</f>
         <v>3.6612583308661469E-2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="8">
         <v>1.41E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J15" si="1">ABS(D4)</f>
         <v>4.8933898063250221E-2</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="8">
         <v>1.44E-2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>1</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
         <v>1</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
@@ -2332,27 +2282,27 @@
       <c r="D5" s="2">
         <v>0.10287536867625754</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>4.2096983815257082E-2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="8">
         <v>1.01E-2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="8">
         <f t="shared" si="1"/>
         <v>0.10287536867625754</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
@@ -2364,27 +2314,27 @@
       <c r="D6" s="2">
         <v>6.1997179042535898E-2</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>8.2941063850784563E-2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="8">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="8">
         <f t="shared" si="1"/>
         <v>6.1997179042535898E-2</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>1.44E-2</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
@@ -2396,27 +2346,27 @@
       <c r="D7" s="2">
         <v>0.15152918200694493</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0.12534013207671307</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="8">
         <v>0.10199999999999999</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="8">
         <f t="shared" si="1"/>
         <v>0.15152918200694493</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
@@ -2428,31 +2378,31 @@
       <c r="D8" s="2">
         <v>-3.9556059520471851E-2</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>4.944937442021119E-2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="8">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="8">
         <f t="shared" si="1"/>
         <v>3.9556059520471851E-2</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <v>1</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
@@ -2464,31 +2414,31 @@
       <c r="D9" s="2">
         <v>-1.8525674174220953E-2</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>2.180597062403369E-2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="8">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="8">
         <f t="shared" si="1"/>
         <v>1.8525674174220953E-2</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2502,33 +2452,33 @@
       <c r="D10" s="2">
         <v>-1.753589430889619E-2</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="8">
         <f t="shared" si="0"/>
         <v>1.7383656765025166E-2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="8">
         <f t="shared" si="1"/>
         <v>1.753589430889619E-2</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>3.3E-3</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="8">
         <v>1</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="8">
         <v>1</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2542,31 +2492,31 @@
       <c r="D11" s="2">
         <v>2.9298269620461038E-2</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>8.9516618507187746E-3</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="8">
         <v>2.8E-3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="8">
         <f t="shared" si="1"/>
         <v>2.9298269620461038E-2</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="8">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
+      <c r="M11" s="8"/>
+      <c r="N11" s="8">
         <v>1</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2580,33 +2530,33 @@
       <c r="D12" s="2">
         <v>-2.6641125752399547E-2</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>1.5993964275140628E-2</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="8">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="8">
         <f t="shared" si="1"/>
         <v>2.6641125752399547E-2</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>1</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>1</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2620,29 +2570,29 @@
       <c r="D13" s="2">
         <v>-2.7374006105728793E-2</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="8">
         <f t="shared" si="0"/>
         <v>3.7964768577913748E-2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="8">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="8">
         <f t="shared" si="1"/>
         <v>2.7374006105728793E-2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
         <v>1</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2656,29 +2606,29 @@
       <c r="D14" s="2">
         <v>2.6060072894925394E-2</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>2.6480216158426269E-2</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="8">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>2.6060072894925394E-2</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8">
         <v>1</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2692,27 +2642,27 @@
       <c r="D15" s="2">
         <v>3.0853270983827667E-2</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>4.283024612651732E-2</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="8">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>3.0853270983827667E-2</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="8">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2726,31 +2676,31 @@
       <c r="D16" s="2">
         <v>-0.104661803928265</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="8">
         <f>ABS(C18)</f>
         <v>4.2868552419487491E-2</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="8">
         <f>ABS(D18)</f>
         <v>6.9505056840273818E-2</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>1</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>1</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
     </row>
     <row r="17" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
@@ -2762,27 +2712,27 @@
       <c r="D17" s="2">
         <v>0.10704817087733509</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="G17" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="H17" s="8">
         <f>(ABS(C16)+ABS(C17))/2</f>
         <v>9.1429519721043462E-2</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="8">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="8">
         <f>(ABS(D16)+ABS(D17))/2</f>
         <v>0.10585498740280005</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="8">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
@@ -2794,22 +2744,22 @@
       <c r="D18" s="2">
         <v>-6.9505056840273818E-2</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
         <f>ABS(D19)</f>
         <v>6.3085896712575015E-2</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="8">
         <v>0.1128</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2821,24 +2771,24 @@
       <c r="D19" s="2">
         <v>6.3085896712575015E-2</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8">
         <f>ABS(D20)</f>
         <v>4.0038215416542157E-2</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="8">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
         <v>1</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
@@ -2851,27 +2801,27 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G22" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G23" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G24" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
@@ -2880,67 +2830,67 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G30" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G31" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G33" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G34" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G35" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G36" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G37" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G39" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G40" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G41" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G42" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -2952,6 +2902,589 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D90F24A-7F75-45E8-8BB3-6C42D7504CB5}">
+  <dimension ref="C2:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C2" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="I3" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="J3">
+        <v>0.30398999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.26001809999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="2">
+        <f>G4*(J4/J$3)</f>
+        <v>-3.6612583308661469E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>H4*(K4/K$3)</f>
+        <v>-4.8933898063250221E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>-0.109</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-0.128</v>
+      </c>
+      <c r="J4">
+        <v>0.1021088</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.9403900000000003E-2</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D9" si="0">G5*(J5/J$3)</f>
+        <v>4.2096983815257082E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E8" si="1">H5*(K5/K$3)</f>
+        <v>0.10287536867625754</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.21E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.4468570000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.210699</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2941063850784563E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1997179042535898E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.208374</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.13778109999999999</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12534013207671307</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15152918200694493</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>0.52993250000000003</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.3940033</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.944937442021119E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.9556059520471851E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>-3.8899999999999997E-2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-2.7400000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.38642969999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.37537559999999998</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.180597062403369E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>H9*(K9/K$3)</f>
+        <v>-1.8525674174220953E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-4.7300000000000002E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-3.3700000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.14014370000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.14293800000000001</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D18" si="2">G10*(J10/J$3)</f>
+        <v>-1.7383656765025166E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="E10:E20" si="3">H10*(K10/K$3)</f>
+        <v>-1.753589430889619E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>-4.5900000000000003E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-4.48E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.1151298</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.1017779</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.9516618507187746E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9298269620461038E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-8.9800000000000001E-3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.30303069999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.27207429999999999</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.5993964275140628E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.6641125752399547E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>-0.156</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="J12">
+        <v>3.1166699999999999E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.6540899999999999E-2</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7964768577913748E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>-2.7374006105728793E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-7.8899999999999994E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.154091</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.90212130000000001</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6480216158426269E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6060072894925394E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.53309410000000002</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.41827720000000002</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>4.283024612651732E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0853270983827667E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.98636109999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.65757449999999995</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.4795520905292951E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.104661803928265</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="J16">
+        <v>9.6182799999999999E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.1016600000000003E-2</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8063518536793973E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10704817087733509</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.127</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J17">
+        <v>0.23472699999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.20169899999999999</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.2868552419487491E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>-6.9505056840273818E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-1.37E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>-1.8599999999999998E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.95121250000000002</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.9716437</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3085896712575015E-2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.1093565</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>-4.0038215416542157E-2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.94642369999999998</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K21" s="1"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K22" s="1"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K24" s="1"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K25" s="1"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K26" s="1"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K27" s="1"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K28" s="1"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K29" s="1"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K30" s="1"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K31" s="1"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="K32" s="1"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K33" s="1"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="K34" s="1"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:Q643"/>
   <sheetViews>
@@ -3005,14 +3538,14 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="G8" s="11"/>
+      <c r="D8" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
@@ -3254,7 +3787,7 @@
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D23">
         <v>2.3999999999999998E-3</v>
@@ -3293,7 +3826,7 @@
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D26">
         <v>0.13880000000000001</v>
@@ -3342,7 +3875,7 @@
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="Q55" s="7"/>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
@@ -4616,112 +5149,112 @@
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C328" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C329" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C331" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C332" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C334" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C335" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C336" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C337" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C338" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C339" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C340" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C341" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C342" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C343" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C344" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C345" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C346" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C347" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C348" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C349" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C350" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C351" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.45">
@@ -4731,422 +5264,422 @@
     </row>
     <row r="356" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C356" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D356" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="357" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C357" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D357" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="358" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C358" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D358" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="359" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C359" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D359" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="360" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C360" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D360" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="361" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C361" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D361" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C362" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D362" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="363" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C363" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D363" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="364" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C364" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D364" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="365" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C365" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D365" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="366" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C366" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D366" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="367" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C367" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D367" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="368" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C368" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D368" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="369" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C369" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D369" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="370" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C370" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D370" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="371" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C371" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D371" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="372" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C372" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D372" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="373" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C373" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D373" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="374" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C374" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D374" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="375" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C375" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D375" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="377" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C377" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D377" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="378" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C378" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D378" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="379" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C379" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D379" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="380" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C380" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D380" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="381" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C381" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D381" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="382" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C382" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D382" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="383" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C383" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D383" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="384" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C384" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D384" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="385" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C385" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D385" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="386" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C386" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D386" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="387" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C387" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D387" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C388" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D388" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="389" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C389" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D389" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C390" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D390" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="391" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C391" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D391" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="392" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C392" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D392" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="393" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C393" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D393" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="394" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C394" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D394" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="395" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C395" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D395" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="396" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C396" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D396" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="398" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C398" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="399" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C399" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="400" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C400" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C401" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C402" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C403" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C404" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C405" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C406" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C407" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C408" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C409" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C410" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C411" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C412" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C413" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C414" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C415" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C416" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="417" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C417" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="419" spans="3:4" x14ac:dyDescent="0.45">
@@ -5156,482 +5689,482 @@
     </row>
     <row r="422" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C422" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D422" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="423" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C423" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D423" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="424" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C424" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D424" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="425" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C425" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D425" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="426" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C426" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D426" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="427" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C427" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D427" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="428" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C428" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D428" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C429" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D429" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="430" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C430" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D430" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="431" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C431" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D431" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="432" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C432" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D432" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="433" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C433" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D433" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="434" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C434" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D434" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="435" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C435" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D435" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C436" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D436" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C437" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D437" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="438" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C438" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D438" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="439" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C439" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D439" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="440" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C440" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D440" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="441" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C441" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D441" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="443" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C443" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D443" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="444" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C444" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D444" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C445" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D445" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="446" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C446" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D446" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="447" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C447" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D447" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="448" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C448" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D448" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="449" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C449" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D449" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="450" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C450" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D450" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="451" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C451" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D451" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="452" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C452" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D452" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="453" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C453" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D453" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="454" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C454" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D454" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="455" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C455" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D455" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="456" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C456" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D456" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="457" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C457" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D457" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="458" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C458" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D458" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="459" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C459" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D459" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="460" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C460" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D460" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="461" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C461" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D461" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="462" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C462" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D462" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="464" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C464" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D464" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="465" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C465" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D465" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="466" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C466" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D466" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="467" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C467" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D467" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="468" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C468" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D468" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="469" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C469" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D469" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="470" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C470" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D470" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="471" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C471" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D471" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="472" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C472" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D472" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="473" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C473" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D473" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="474" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C474" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D474" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="475" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C475" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D475" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="476" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C476" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D476" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="477" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C477" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D477" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="478" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C478" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D478" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="479" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C479" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D479" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="480" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C480" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D480" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="481" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C481" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D481" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="482" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C482" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D482" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="483" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C483" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D483" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="486" spans="3:4" x14ac:dyDescent="0.45">
@@ -5666,7 +6199,7 @@
     </row>
     <row r="493" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C493" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="494" spans="3:4" x14ac:dyDescent="0.45">
@@ -5706,7 +6239,7 @@
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C501" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.45">
@@ -5731,7 +6264,7 @@
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C506" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.45">
@@ -5791,7 +6324,7 @@
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C518" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.45">
@@ -5806,32 +6339,32 @@
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C521" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C522" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C523" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C524" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C525" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C526" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.45">
@@ -5856,7 +6389,7 @@
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C531" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.45">
@@ -5871,7 +6404,7 @@
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C534" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.45">
@@ -5881,7 +6414,7 @@
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C536" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.45">
@@ -5896,12 +6429,12 @@
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C539" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C540" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.45">
@@ -5921,32 +6454,32 @@
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C544" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C545" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C546" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C547" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C548" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C549" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.45">
@@ -5956,7 +6489,7 @@
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C551" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.45">
@@ -5971,12 +6504,12 @@
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C554" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C555" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.45">
@@ -5986,17 +6519,17 @@
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C557" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C558" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C559" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.45">
@@ -6006,22 +6539,22 @@
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C561" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C562" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C563" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C564" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.45">
@@ -6031,7 +6564,7 @@
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C566" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.45">
@@ -6046,17 +6579,17 @@
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C569" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C570" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C571" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.45">
@@ -6071,17 +6604,17 @@
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C574" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C575" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C576" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.45">
@@ -6101,12 +6634,12 @@
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C580" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C581" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="582" spans="3:3" x14ac:dyDescent="0.45">
@@ -6131,7 +6664,7 @@
     </row>
     <row r="586" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C586" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="587" spans="3:3" x14ac:dyDescent="0.45">
@@ -6146,27 +6679,27 @@
     </row>
     <row r="589" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C589" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="590" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C590" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="591" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C591" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="592" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C592" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="593" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C593" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="594" spans="3:3" x14ac:dyDescent="0.45">
@@ -6176,22 +6709,22 @@
     </row>
     <row r="595" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C595" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="596" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C596" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="597" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C597" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="598" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C598" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="599" spans="3:3" x14ac:dyDescent="0.45">
@@ -6201,22 +6734,22 @@
     </row>
     <row r="600" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C600" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="601" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C601" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="602" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C602" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="603" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C603" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="604" spans="3:3" x14ac:dyDescent="0.45">
@@ -6231,22 +6764,22 @@
     </row>
     <row r="606" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C606" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="607" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C607" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="608" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C608" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="609" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C609" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="610" spans="3:3" x14ac:dyDescent="0.45">
@@ -6261,7 +6794,7 @@
     </row>
     <row r="612" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C612" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="613" spans="3:3" x14ac:dyDescent="0.45">
@@ -6276,12 +6809,12 @@
     </row>
     <row r="615" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C615" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="616" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C616" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="617" spans="3:3" x14ac:dyDescent="0.45">
@@ -6296,12 +6829,12 @@
     </row>
     <row r="619" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C619" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="620" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C620" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="621" spans="3:3" x14ac:dyDescent="0.45">
@@ -6316,47 +6849,47 @@
     </row>
     <row r="623" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C623" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="624" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C624" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="625" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C625" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="626" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C626" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="627" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C627" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="628" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C628" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="629" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C629" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="630" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C630" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="631" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C631" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="632" spans="3:3" x14ac:dyDescent="0.45">
@@ -6366,7 +6899,7 @@
     </row>
     <row r="633" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C633" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="634" spans="3:3" x14ac:dyDescent="0.45">
@@ -6386,22 +6919,22 @@
     </row>
     <row r="637" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C637" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="638" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C638" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="639" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C639" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="640" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C640" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="642" spans="3:3" x14ac:dyDescent="0.45">
@@ -6422,1137 +6955,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D90F24A-7F75-45E8-8BB3-6C42D7504CB5}">
-  <dimension ref="C2:N34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C2" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="I3" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="J3">
-        <v>0.30398999999999998</v>
-      </c>
-      <c r="K3">
-        <v>0.26001809999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="2">
-        <f>G4*(J4/J$3)</f>
-        <v>-3.6612583308661469E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <f>H4*(K4/K$3)</f>
-        <v>-4.8933898063250221E-2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>-0.109</v>
-      </c>
-      <c r="H4" s="8">
-        <v>-0.128</v>
-      </c>
-      <c r="J4">
-        <v>0.1021088</v>
-      </c>
-      <c r="K4" s="1">
-        <v>9.9403900000000003E-2</v>
-      </c>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D9" si="0">G5*(J5/J$3)</f>
-        <v>4.2096983815257082E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E8" si="1">H5*(K5/K$3)</f>
-        <v>0.10287536867625754</v>
-      </c>
-      <c r="G5" s="8">
-        <v>5.2300000000000003E-3</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1.21E-2</v>
-      </c>
-      <c r="J5">
-        <v>2.4468570000000001</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.210699</v>
-      </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>8.2941063850784563E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>6.1997179042535898E-2</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.121</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.208374</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.13778109999999999</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12534013207671307</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15152918200694493</v>
-      </c>
-      <c r="G7" s="8">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="J7">
-        <v>0.52993250000000003</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.3940033</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.944937442021119E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>-3.9556059520471851E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-3.8899999999999997E-2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>-2.7400000000000001E-2</v>
-      </c>
-      <c r="J8">
-        <v>0.38642969999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.37537559999999998</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.180597062403369E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <f>H9*(K9/K$3)</f>
-        <v>-1.8525674174220953E-2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>-4.7300000000000002E-2</v>
-      </c>
-      <c r="H9" s="8">
-        <v>-3.3700000000000001E-2</v>
-      </c>
-      <c r="J9">
-        <v>0.14014370000000001</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.14293800000000001</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D18" si="2">G10*(J10/J$3)</f>
-        <v>-1.7383656765025166E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10:E20" si="3">H10*(K10/K$3)</f>
-        <v>-1.753589430889619E-2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>-4.5900000000000003E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>-4.48E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.1151298</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.1017779</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.9516618507187746E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9298269620461038E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-8.9800000000000001E-3</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.30303069999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.27207429999999999</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.5993964275140628E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.6641125752399547E-2</v>
-      </c>
-      <c r="G12" s="8">
-        <v>-0.156</v>
-      </c>
-      <c r="H12" s="8">
-        <v>-0.26100000000000001</v>
-      </c>
-      <c r="J12">
-        <v>3.1166699999999999E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2.6540899999999999E-2</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>3.7964768577913748E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>-2.7374006105728793E-2</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H13" s="8">
-        <v>-7.8899999999999994E-3</v>
-      </c>
-      <c r="J13">
-        <v>1.154091</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.90212130000000001</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>2.6480216158426269E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6060072894925394E-2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.53309410000000002</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.41827720000000002</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>4.283024612651732E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>3.0853270983827667E-2</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1.32E-2</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.98636109999999999</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.65757449999999995</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.4795520905292951E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.104661803928265</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="H16" s="8">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="J16">
-        <v>9.6182799999999999E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>9.1016600000000003E-2</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>9.8063518536793973E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10704817087733509</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.127</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.23472699999999999</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.20169899999999999</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C18" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.2868552419487491E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>-6.9505056840273818E-2</v>
-      </c>
-      <c r="G18" s="8">
-        <v>-1.37E-2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>-1.8599999999999998E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.95121250000000002</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.9716437</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C19" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>6.3085896712575015E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.1093565</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C20" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>-4.0038215416542157E-2</v>
-      </c>
-      <c r="H20" s="8">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.94642369999999998</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K21" s="1"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K22" s="1"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K23" s="1"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K24" s="1"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K25" s="1"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K26" s="1"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K27" s="1"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K28" s="1"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K29" s="1"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K30" s="1"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K31" s="1"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="K32" s="1"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K33" s="1"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.45">
-      <c r="K34" s="1"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D3:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>294</v>
-      </c>
-      <c r="I3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="D4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-0.22700000000000001</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3.5242000000000002E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.10107090000000001</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" ref="H4:H13" si="0">G4-F4</f>
-        <v>6.5828899999999996E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I13" si="1">H4*E4</f>
-        <v>-1.4943160299999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.98E-3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>-5.5205339999999996</v>
-      </c>
-      <c r="G5" s="5">
-        <v>-5.5316549999999998</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.1121000000000159E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="1"/>
-        <v>-3.3140580000000472E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.29174820000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.28313959999999999</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.6086000000000218E-3</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>-7.0418348000000181E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8.1299999999999997E-2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>-0.19108849999999999</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.1543822</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.34547070000000002</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>2.8086767910000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="D8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-4.8300000000000003E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-2.3699999999999999E-2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3.5557720000000002</v>
-      </c>
-      <c r="G9" s="5">
-        <v>3.399794</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>-0.15597800000000017</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6966786000000038E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-2.6599999999999999E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.4603700000000001E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2.8169199999999998E-2</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3565499999999998E-2</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>-3.6084229999999994E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="4">
-        <v>-4.6800000000000001E-2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-2.6573959999999999</v>
-      </c>
-      <c r="G11" s="5">
-        <v>-2.75441</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>-9.7014000000000156E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>4.540255200000007E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="4">
-        <v>-0.622</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5.1008E-3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>8.3262000000000006E-3</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>3.2254000000000007E-3</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="1"/>
-        <v>-2.0061988000000005E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1.03E-2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="G13" s="5">
-        <v>3.4510000000000001</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>1.097</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1299099999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="I14" s="7">
-        <f>SUM(I4:I13)</f>
-        <v>2.9575276250000008E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="D15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.15931800000000074</v>
-      </c>
-      <c r="I15" s="7">
-        <f>H15*E15</f>
-        <v>0.1271357640000006</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="D16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="5">
-        <v>-3.6549999999999999E-2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1.05936E-2</v>
-      </c>
-      <c r="H16" s="5">
-        <f>G16-F16</f>
-        <v>4.7143600000000001E-2</v>
-      </c>
-      <c r="I16" s="7">
-        <f>H16</f>
-        <v>4.7143600000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I17" s="7">
-        <f>SUM(I14:I16)</f>
-        <v>0.20385464025000061</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I18" s="7">
-        <f>I17/5</f>
-        <v>4.077092805000012E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF8D126-9D4C-4019-A7A0-F41ED2F8EDBC}">
-  <dimension ref="F5:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="G5" t="s">
-        <v>593</v>
-      </c>
-      <c r="H5" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F6" t="s">
-        <v>592</v>
-      </c>
-      <c r="G6">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="H6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F7" t="s">
-        <v>595</v>
-      </c>
-      <c r="G7">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
-        <v>596</v>
-      </c>
-      <c r="G9">
-        <v>0.16</v>
-      </c>
-      <c r="H9">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="G10">
-        <f>G9*G7</f>
-        <v>3.8239999999999996E-2</v>
-      </c>
-      <c r="H10">
-        <f>H9*H7</f>
-        <v>2.0640000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>597</v>
-      </c>
-      <c r="G12">
-        <v>0.35</v>
-      </c>
-      <c r="H12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="G13">
-        <f>G12*G7</f>
-        <v>8.3649999999999988E-2</v>
-      </c>
-      <c r="H13">
-        <f>H12*H7</f>
-        <v>4.5149999999999996E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267EB8A8-6060-4791-A0DE-B146FC485A36}">
-  <dimension ref="E3:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="3" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="J3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="G4" t="s">
-        <v>587</v>
-      </c>
-      <c r="H4">
-        <v>0.78131079999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="G5" t="s">
-        <v>586</v>
-      </c>
-      <c r="H5">
-        <v>-2.5260600000000001E-2</v>
-      </c>
-      <c r="J5">
-        <f>H5/(1-$H$4)</f>
-        <v>-0.11550913351002243</v>
-      </c>
-    </row>
-    <row r="6" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="G6" t="s">
-        <v>585</v>
-      </c>
-      <c r="H6">
-        <v>-1.1655000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F9">
-        <v>0.25</v>
-      </c>
-      <c r="G9">
-        <v>4.4114719999999998</v>
-      </c>
-      <c r="H9" s="7">
-        <f>$H$5+$H$6*G9</f>
-        <v>-3.0402170616E-2</v>
-      </c>
-      <c r="I9" s="7">
-        <f>H9/4</f>
-        <v>-7.6005426540000001E-3</v>
-      </c>
-      <c r="J9" s="7">
-        <f>H9/(1-$H$4)</f>
-        <v>-0.13901999100092732</v>
-      </c>
-      <c r="K9" s="7">
-        <f>J9/4</f>
-        <v>-3.4754997750231831E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F10">
-        <v>0.75</v>
-      </c>
-      <c r="G10">
-        <v>26.833970000000001</v>
-      </c>
-      <c r="H10" s="7">
-        <f>$H$5+$H$6*G10</f>
-        <v>-5.6535592035000005E-2</v>
-      </c>
-      <c r="I10" s="7">
-        <f>H10/4</f>
-        <v>-1.4133898008750001E-2</v>
-      </c>
-      <c r="J10" s="7">
-        <f>H10/(1-$H$4)</f>
-        <v>-0.2585202745951789</v>
-      </c>
-      <c r="K10" s="7">
-        <f>J10/4</f>
-        <v>-6.4630068648794725E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.45">
-      <c r="F11">
-        <v>0.9</v>
-      </c>
-      <c r="G11">
-        <v>37.01934</v>
-      </c>
-      <c r="H11" s="7">
-        <f>$H$5+$H$6*G11</f>
-        <v>-6.8406640769999999E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <f>H11/4</f>
-        <v>-1.71016601925E-2</v>
-      </c>
-      <c r="J11" s="7">
-        <f>H11/(1-$H$4)</f>
-        <v>-0.31280301345471101</v>
-      </c>
-      <c r="K11" s="7">
-        <f>J11/4</f>
-        <v>-7.8200753363677752E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="F19" t="s">
-        <v>584</v>
-      </c>
-      <c r="G19" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="E20">
-        <v>-5.7606600000000001E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.15609120000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.35395729999999997</v>
-      </c>
-      <c r="I20">
-        <f>($E$20*F20)/G20</f>
-        <v>-2.5403864595870747E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="F21">
-        <v>4.0385419999999996</v>
-      </c>
-      <c r="G21">
-        <v>8.9446010000000005</v>
-      </c>
-      <c r="I21">
-        <f>($E$20*G20)/F20</f>
-        <v>-0.13063053265129615</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.45">
-      <c r="I22">
-        <f>($E$20*G21)/F21</f>
-        <v>-0.12758764226460939</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/3a_WBPRWP_relevance.xlsx
+++ b/3a_WBPRWP_relevance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMWacker\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801D3A97-2255-4AB1-8683-C6A944EEDC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878F6E2-06B7-4DD9-BF9D-CC068E4C9F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relevance_overview" sheetId="5" r:id="rId1"/>
@@ -38,8 +38,155 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KMWacker</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{ED990364-B144-4CE0-A5E8-F33BF6CC47DD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Result from "domin" analysis (see 2_WBPRWP_dominance.do and tab "dominance").</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{572F646D-1BE6-4028-AEA4-73637B4C5F28}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Result from "domin" analysis (see 2_WBPRWP_dominance.do and tab "dominance")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{BBDA22C4-BC9E-4621-8876-5F2A90223006}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=1 if the corresponding coefficient in column (2) of table 2 in the associated working paper is &lt;0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{239A9BC7-00EE-4E33-9C49-381BAEE6CE8E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=1 if the corresponding coefficient in column (3) of table 2 in the associated working paper is &lt;0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{4439A3D3-A31E-4626-911E-BDA89C666633}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=1 if the p-value of the corresponding coefficient estimate in column (2) of table 2 in the associated working paper is &gt;0.1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{2636E734-6F23-4325-9082-B1D6F5283D8F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>=1 if the p-value of the corresponding coefficient estimate in column (3) of table 2 in the associated working paper is &gt;0.1.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KMWacker</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F6BC5003-21B9-4E8B-8E74-1F03E85144EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>calculated from the other columns</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{08BD8933-ED41-497A-A75B-86922F0FAD3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>These coefficients are identical to those of columns (2) and (3), respectively, of Table 2 in the associated working paper.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KMWacker</author>
+  </authors>
+  <commentList>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{161FA1BA-B05D-499A-86E3-09BC96776556}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Captures the lEDI terms (incl. square)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="600">
   <si>
     <t>General dominance statistics: Custom user analysis</t>
   </si>
@@ -1787,18 +1934,90 @@
     <t>depvar:</t>
   </si>
   <si>
-    <t>standardized beta 
+    <t>to obtain the "within variation" please run the following STATA code</t>
+  </si>
+  <si>
+    <t>gen smpl_med = 1 if e(sample)</t>
+  </si>
+  <si>
+    <t>global depvar lrgdpna_pc</t>
+  </si>
+  <si>
+    <t>gen lagdependent = L.$depvar</t>
+  </si>
+  <si>
+    <t>gen lEDI_ipol_sq = lEDI_ipol*lEDI_ipol</t>
+  </si>
+  <si>
+    <t>gen dltot = d.ltot</t>
+  </si>
+  <si>
+    <t>gen durbanpop = d.urbanpop</t>
+  </si>
+  <si>
+    <t>gen dgini = d.gini_mkt</t>
+  </si>
+  <si>
+    <t>qui xtreg $depvar lagdependent linflation_na lrer ltraderesid infrastructure_index dum_fincrisis sd_temperature dltot lkg sd_growth durbanpop lcredit lFDIstock_ipol lEDI_ipol lEDI_ipol_sq actotal i.period, fe robust</t>
+  </si>
+  <si>
+    <t>qui xtreg $depvar lagdependent linflation_na lrer ltraderesid infrastructure_index dum_fincrisis sd_temperature dltot lkg sd_growth durbanpop lcredit lFDIstock_ipol lEDI_ipol lEDI_ipol_sq actotal lhc dgini i.period, fe robust</t>
+  </si>
+  <si>
+    <t>gen smpl_large = 1 if e(sample)</t>
+  </si>
+  <si>
+    <t>*TO OBTAIN COLUMN J, take "Std. dev." from "within" from:</t>
+  </si>
+  <si>
+    <t>xtsum lagdependent linflation_na lrer ltraderesid infrastructure_index dum_fincrisis sd_temperature dltot lkg sd_growth durbanpop lcredit lFDIstock_ipol lEDI_ipol lEDI_ipol_sq actotal if smpl_med==1</t>
+  </si>
+  <si>
+    <t>*TO OBTAIN COLUMN K, take "Std. dev." from "within" from:</t>
+  </si>
+  <si>
+    <t>xtsum lagdependent linflation_na lrer ltraderesid infrastructure_index dum_fincrisis sd_temperature dltot lkg sd_growth durbanpop lcredit lFDIstock_ipol lEDI_ipol lEDI_ipol_sq actotal lhc dgini if smpl_large==1</t>
+  </si>
+  <si>
+    <t>for the file growthdata_public.dta (simply copy-paste the lines):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">standardized beta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 (see tab std_beta)</t>
+    </r>
+  </si>
+  <si>
+    <t>infrastructure_index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,8 +2031,37 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1823,6 +2071,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,13 +2102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1864,21 +2115,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2193,609 +2480,613 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01676F7D-DB82-4BC0-B65F-767FD37EBD0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01676F7D-DB82-4BC0-B65F-767FD37EBD0D}">
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="24" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
         <v>-3.6612583308661469E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <v>-4.8933898063250221E-2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="26">
         <f t="shared" ref="H4:H15" si="0">ABS(C4)</f>
         <v>3.6612583308661469E-2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="26">
         <v>1.41E-2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="26">
         <f t="shared" ref="J4:J15" si="1">ABS(D4)</f>
         <v>4.8933898063250221E-2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="26">
         <v>1.44E-2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="23">
         <v>1</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="23">
         <v>1</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>4.2096983815257082E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <v>0.10287536867625754</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
+      <c r="H5" s="26">
+        <f>ABS(C5)</f>
         <v>4.2096983815257082E-2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="26">
         <v>1.01E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="26">
         <f t="shared" si="1"/>
         <v>0.10287536867625754</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="26">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="11">
         <v>8.2941063850784563E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
         <v>6.1997179042535898E-2</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="26">
         <f t="shared" si="0"/>
         <v>8.2941063850784563E-2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="26">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="26">
         <f t="shared" si="1"/>
         <v>6.1997179042535898E-2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="26">
         <v>1.44E-2</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.12534013207671307</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.15152918200694493</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.12534013207671307</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.15152918200694493</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="H7" s="26">
         <f t="shared" si="0"/>
         <v>0.12534013207671307</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="26">
         <v>0.10199999999999999</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="26">
         <f t="shared" si="1"/>
         <v>0.15152918200694493</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="26">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
         <v>-4.944937442021119E-2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
         <v>-3.9556059520471851E-2</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="26">
         <f t="shared" si="0"/>
         <v>4.944937442021119E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="26">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="26">
         <f t="shared" si="1"/>
         <v>3.9556059520471851E-2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="26">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="23">
         <v>1</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="23">
         <v>1</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="11">
         <v>-2.180597062403369E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
         <v>-1.8525674174220953E-2</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="26">
         <f t="shared" si="0"/>
         <v>2.180597062403369E-2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="26">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="26">
         <f t="shared" si="1"/>
         <v>1.8525674174220953E-2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="26">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="23">
         <v>1</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="23">
         <v>1</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8">
+      <c r="N9" s="23"/>
+      <c r="O9" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="11">
         <v>-1.7383656765025166E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="11">
         <v>-1.753589430889619E-2</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="26">
         <f t="shared" si="0"/>
         <v>1.7383656765025166E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="26">
         <f t="shared" si="1"/>
         <v>1.753589430889619E-2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="26">
         <v>3.3E-3</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="23">
         <v>1</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="23">
         <v>1</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="23">
         <v>1</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="11">
         <v>-8.9516618507187746E-3</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
         <v>2.9298269620461038E-2</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="26">
         <f t="shared" si="0"/>
         <v>8.9516618507187746E-3</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="26">
         <v>2.8E-3</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="26">
         <f t="shared" si="1"/>
         <v>2.9298269620461038E-2</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="26">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="23">
         <v>1</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23">
         <v>1</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="11">
         <v>-1.5993964275140628E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="11">
         <v>-2.6641125752399547E-2</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="26">
         <f t="shared" si="0"/>
         <v>1.5993964275140628E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="26">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="26">
         <f t="shared" si="1"/>
         <v>2.6641125752399547E-2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="23">
         <v>1</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="23">
         <v>1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="23">
         <v>1</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="11">
         <v>3.7964768577913748E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="11">
         <v>-2.7374006105728793E-2</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="26">
         <f t="shared" si="0"/>
         <v>3.7964768577913748E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="26">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="26">
         <f t="shared" si="1"/>
         <v>2.7374006105728793E-2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="26">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8">
+      <c r="L13" s="23"/>
+      <c r="M13" s="23">
         <v>1</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8">
+      <c r="N13" s="23"/>
+      <c r="O13" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="11">
         <v>2.6480216158426269E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="11">
         <v>2.6060072894925394E-2</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="26">
         <f t="shared" si="0"/>
         <v>2.6480216158426269E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="26">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="26">
         <f t="shared" si="1"/>
         <v>2.6060072894925394E-2</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="26">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23">
         <v>1</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="11">
         <v>4.283024612651732E-2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="11">
         <v>3.0853270983827667E-2</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="26">
         <f t="shared" si="0"/>
         <v>4.283024612651732E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="26">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>3.0853270983827667E-2</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="26">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8">
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="11">
         <v>-8.4795520905292951E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="11">
         <v>-0.104661803928265</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="26">
         <f>ABS(C18)</f>
         <v>4.2868552419487491E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="26">
         <f>ABS(D18)</f>
         <v>6.9505056840273818E-2</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="26">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="23">
         <v>1</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="23">
         <v>1</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="11">
         <v>9.8063518536793973E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="11">
         <v>0.10704817087733509</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="26">
         <f>(ABS(C16)+ABS(C17))/2</f>
         <v>9.1429519721043462E-2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="26">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="26">
         <f>(ABS(D16)+ABS(D17))/2</f>
         <v>0.10585498740280005</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="26">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="11">
         <v>-4.2868552419487491E-2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="11">
         <v>-6.9505056840273818E-2</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26">
         <f>ABS(D19)</f>
         <v>6.3085896712575015E-2</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="26">
         <v>0.1128</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8">
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
         <v>6.3085896712575015E-2</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26">
         <f>ABS(D20)</f>
         <v>4.0038215416542157E-2</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="26">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8">
+      <c r="L19" s="23"/>
+      <c r="M19" s="23">
         <v>1</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="2:15" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>-4.0038215416542157E-2</v>
       </c>
     </row>
@@ -2826,7 +3117,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
@@ -2898,598 +3189,814 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D90F24A-7F75-45E8-8BB3-6C42D7504CB5}">
-  <dimension ref="C2:N34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D90F24A-7F75-45E8-8BB3-6C42D7504CB5}">
+  <dimension ref="C2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="5.73046875" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" customWidth="1"/>
+    <col min="7" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C2" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="I3" s="6" t="s">
+      <c r="K2" s="15"/>
+      <c r="N2" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="22">
         <v>0.30398999999999998</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="22">
         <v>0.26001809999999997</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="s">
+      <c r="N3" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="12">
         <f>G4*(J4/J$3)</f>
         <v>-3.6612583308661469E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="12">
         <f>H4*(K4/K$3)</f>
         <v>-4.8933898063250221E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="F4" s="13"/>
+      <c r="G4" s="12">
         <v>-0.109</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="12">
         <v>-0.128</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
         <v>0.1021088</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="14">
         <v>9.9403900000000003E-2</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C5" s="1" t="s">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <f t="shared" ref="D5:D9" si="0">G5*(J5/J$3)</f>
         <v>4.2096983815257082E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="12">
         <f t="shared" ref="E5:E8" si="1">H5*(K5/K$3)</f>
         <v>0.10287536867625754</v>
       </c>
-      <c r="G5" s="5">
+      <c r="F5" s="13"/>
+      <c r="G5" s="12">
         <v>5.2300000000000003E-3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>1.21E-2</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
         <v>2.4468570000000001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="14">
         <v>2.210699</v>
       </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C6" s="1" t="s">
+      <c r="L5" s="4"/>
+      <c r="N5" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>8.2941063850784563E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>6.1997179042535898E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="F6" s="13"/>
+      <c r="G6" s="12">
         <v>0.121</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
         <v>0.208374</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="14">
         <v>0.13778109999999999</v>
       </c>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C7" s="1" t="s">
+      <c r="L6" s="4"/>
+      <c r="N6" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>0.12534013207671307</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>0.15152918200694493</v>
       </c>
-      <c r="G7" s="5">
+      <c r="F7" s="13"/>
+      <c r="G7" s="12">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="12">
         <v>0.1</v>
       </c>
-      <c r="J7">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
         <v>0.52993250000000003</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="14">
         <v>0.3940033</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C8" s="1" t="s">
+      <c r="L7" s="4"/>
+      <c r="N7" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>-4.944937442021119E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>-3.9556059520471851E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="F8" s="13"/>
+      <c r="G8" s="12">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="12">
         <v>-2.7400000000000001E-2</v>
       </c>
-      <c r="J8">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
         <v>0.38642969999999999</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="14">
         <v>0.37537559999999998</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C9" s="1" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>-2.180597062403369E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="12">
         <f>H9*(K9/K$3)</f>
         <v>-1.8525674174220953E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="F9" s="13"/>
+      <c r="G9" s="12">
         <v>-4.7300000000000002E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="12">
         <v>-3.3700000000000001E-2</v>
       </c>
-      <c r="J9">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
         <v>0.14014370000000001</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="14">
         <v>0.14293800000000001</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C10" s="1" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <f t="shared" ref="D10:D18" si="2">G10*(J10/J$3)</f>
         <v>-1.7383656765025166E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="12">
         <f t="shared" ref="E10:E20" si="3">H10*(K10/K$3)</f>
         <v>-1.753589430889619E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F10" s="13"/>
+      <c r="G10" s="12">
         <v>-4.5900000000000003E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="12">
         <v>-4.48E-2</v>
       </c>
-      <c r="J10">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13">
         <v>0.1151298</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="14">
         <v>0.1017779</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C11" s="1" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="12">
         <f t="shared" si="2"/>
         <v>-8.9516618507187746E-3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="12">
         <f t="shared" si="3"/>
         <v>2.9298269620461038E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12">
         <v>-8.9800000000000001E-3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="12">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
         <v>0.30303069999999999</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="14">
         <v>0.27207429999999999</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C12" s="1" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="12">
         <f t="shared" si="2"/>
         <v>-1.5993964275140628E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="12">
         <f t="shared" si="3"/>
         <v>-2.6641125752399547E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="F12" s="13"/>
+      <c r="G12" s="12">
         <v>-0.156</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="12">
         <v>-0.26100000000000001</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
         <v>3.1166699999999999E-2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="14">
         <v>2.6540899999999999E-2</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C13" s="1" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="12">
         <f t="shared" si="2"/>
         <v>3.7964768577913748E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="12">
         <f t="shared" si="3"/>
         <v>-2.7374006105728793E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="F13" s="13"/>
+      <c r="G13" s="12">
         <v>0.01</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="12">
         <v>-7.8899999999999994E-3</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
         <v>1.154091</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="14">
         <v>0.90212130000000001</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C14" s="1" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="12">
         <f t="shared" si="2"/>
         <v>2.6480216158426269E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="12">
         <f t="shared" si="3"/>
         <v>2.6060072894925394E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="F14" s="13"/>
+      <c r="G14" s="12">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="12">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="J14">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
         <v>0.53309410000000002</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="14">
         <v>0.41827720000000002</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C15" s="1" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="12">
         <f t="shared" si="2"/>
         <v>4.283024612651732E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="12">
         <f t="shared" si="3"/>
         <v>3.0853270983827667E-2</v>
       </c>
-      <c r="G15" s="5">
+      <c r="F15" s="13"/>
+      <c r="G15" s="12">
         <v>1.32E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="12">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="J15">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
         <v>0.98636109999999999</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="14">
         <v>0.65757449999999995</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C16" s="1" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+    </row>
+    <row r="16" spans="3:21" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <f t="shared" si="2"/>
         <v>-8.4795520905292951E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="12">
         <f t="shared" si="3"/>
         <v>-0.104661803928265</v>
       </c>
-      <c r="G16" s="5">
+      <c r="F16" s="13"/>
+      <c r="G16" s="12">
         <v>-0.26800000000000002</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="12">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="J16">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
         <v>9.6182799999999999E-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="14">
         <v>9.1016600000000003E-2</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="3:14" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="C17" s="1" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="12">
         <f t="shared" si="2"/>
         <v>9.8063518536793973E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="12">
         <f t="shared" si="3"/>
         <v>0.10704817087733509</v>
       </c>
-      <c r="G17" s="5">
+      <c r="F17" s="13"/>
+      <c r="G17" s="12">
         <v>0.127</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="12">
         <v>0.13800000000000001</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
         <v>0.23472699999999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="14">
         <v>0.20169899999999999</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C18" s="1" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <f t="shared" si="2"/>
         <v>-4.2868552419487491E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="12">
         <f t="shared" si="3"/>
         <v>-6.9505056840273818E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="F18" s="13"/>
+      <c r="G18" s="12">
         <v>-1.37E-2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="12">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="J18">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13">
         <v>0.95121250000000002</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="14">
         <v>0.9716437</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C19" s="1" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
         <f t="shared" si="3"/>
         <v>6.3085896712575015E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12">
         <v>0.15</v>
       </c>
-      <c r="K19" s="1">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14">
         <v>0.1093565</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C20" s="1" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <f t="shared" si="3"/>
         <v>-4.0038215416542157E-2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14">
         <v>0.94642369999999998</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+    </row>
+    <row r="23" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K25" s="1"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K27" s="1"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K28" s="1"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K29" s="1"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K30" s="1"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K31" s="1"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="3:19" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K32" s="1"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K33" s="1"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.45">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K34" s="1"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="11:13" ht="14.35" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N8:S8"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:Q643"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3538,14 +4045,14 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
@@ -3875,7 +4382,7 @@
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
@@ -6954,5 +7461,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>